--- a/tietokanta/feats/feats_species.xlsx
+++ b/tietokanta/feats/feats_species.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B3FD1-C7B7-4387-8634-0BB31297DB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ancestry</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +76,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +353,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tietokanta/feats/feats_species.xlsx
+++ b/tietokanta/feats/feats_species.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B3FD1-C7B7-4387-8634-0BB31297DB28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ABFA93-8091-432B-BFAC-6AA60BB3DD72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1380" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="1710" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="136">
   <si>
     <t>Name</t>
   </si>
@@ -37,6 +45,402 @@
   </si>
   <si>
     <t>Ancestry</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Death Warden</t>
+  </si>
+  <si>
+    <t>Forge</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Strong-Blooded</t>
+  </si>
+  <si>
+    <t>Dwarf</t>
+  </si>
+  <si>
+    <t>Dwarven Lore</t>
+  </si>
+  <si>
+    <t>Dwarven Weapon Familiarity</t>
+  </si>
+  <si>
+    <t>Rock Runner</t>
+  </si>
+  <si>
+    <t>Stonecunning</t>
+  </si>
+  <si>
+    <t>Unburdened Iron</t>
+  </si>
+  <si>
+    <t>Vengeful Hatred</t>
+  </si>
+  <si>
+    <t>Boulder Roll</t>
+  </si>
+  <si>
+    <t>Dwarven Weapon Cunning</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>Mountain's Stoutness</t>
+  </si>
+  <si>
+    <t>Stonewalker</t>
+  </si>
+  <si>
+    <t>Dwarven Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Elf</t>
+  </si>
+  <si>
+    <t>Arctic Elf</t>
+  </si>
+  <si>
+    <t>Cavern Elf</t>
+  </si>
+  <si>
+    <t>Seer Elf</t>
+  </si>
+  <si>
+    <t>Whisper Elf</t>
+  </si>
+  <si>
+    <t>Woodland Elf</t>
+  </si>
+  <si>
+    <t>Ancestral Longevity</t>
+  </si>
+  <si>
+    <t>Elven Lore</t>
+  </si>
+  <si>
+    <t>Elven Weapon Familiarity</t>
+  </si>
+  <si>
+    <t>Forlorn</t>
+  </si>
+  <si>
+    <t>Nimble Elf</t>
+  </si>
+  <si>
+    <t>Otherworldly Magic</t>
+  </si>
+  <si>
+    <t>Unwavering Mien</t>
+  </si>
+  <si>
+    <t>Ageless Patience</t>
+  </si>
+  <si>
+    <t>Elven Weapon Elegance</t>
+  </si>
+  <si>
+    <t>Elf Step</t>
+  </si>
+  <si>
+    <t>Expert Longevity</t>
+  </si>
+  <si>
+    <t>Universal Longevity</t>
+  </si>
+  <si>
+    <t>Elven Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Gnome</t>
+  </si>
+  <si>
+    <t>Chameleon Gnome</t>
+  </si>
+  <si>
+    <t>Fey-touched Gnome</t>
+  </si>
+  <si>
+    <t>Sensate Gnome</t>
+  </si>
+  <si>
+    <t>Umbral Gnome</t>
+  </si>
+  <si>
+    <t>Wellspring Gnome</t>
+  </si>
+  <si>
+    <t>Animal Accomplice</t>
+  </si>
+  <si>
+    <t>Burrow Elocutionist</t>
+  </si>
+  <si>
+    <t>Fey Fellowship</t>
+  </si>
+  <si>
+    <t>First World Magic</t>
+  </si>
+  <si>
+    <t>Gnome Obsession</t>
+  </si>
+  <si>
+    <t>Gnome Weapon Familiarity</t>
+  </si>
+  <si>
+    <t>Illusion Sense</t>
+  </si>
+  <si>
+    <t>Animal Elocutionist</t>
+  </si>
+  <si>
+    <t>Energized Font</t>
+  </si>
+  <si>
+    <t>Gnome Weapon Innovator</t>
+  </si>
+  <si>
+    <t>First World Adept</t>
+  </si>
+  <si>
+    <t>Vivacious Conduit</t>
+  </si>
+  <si>
+    <t>Gnome Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Charhide Goblin</t>
+  </si>
+  <si>
+    <t>Irongut Goblin</t>
+  </si>
+  <si>
+    <t>Razortooth Goblin</t>
+  </si>
+  <si>
+    <t>Snow Goblin</t>
+  </si>
+  <si>
+    <t>Unbreakable Goblin</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Burn It!</t>
+  </si>
+  <si>
+    <t>City Scavenger</t>
+  </si>
+  <si>
+    <t>Goblin Lore</t>
+  </si>
+  <si>
+    <t>Goblin Scuttle</t>
+  </si>
+  <si>
+    <t>Goblin Song</t>
+  </si>
+  <si>
+    <t>Goblin Weapon Familiarity</t>
+  </si>
+  <si>
+    <t>Junk Tinker</t>
+  </si>
+  <si>
+    <t>Rough Rider</t>
+  </si>
+  <si>
+    <t>Very Sneaky</t>
+  </si>
+  <si>
+    <t>Goblin Weapon Frenzy</t>
+  </si>
+  <si>
+    <t>Cave Climber</t>
+  </si>
+  <si>
+    <t>Skittering Scuttle</t>
+  </si>
+  <si>
+    <t>Goblin Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Very, Very Sneaky</t>
+  </si>
+  <si>
+    <t>Gutsy Halfling</t>
+  </si>
+  <si>
+    <t>Hillock Halfling</t>
+  </si>
+  <si>
+    <t>Nomadic Halfling</t>
+  </si>
+  <si>
+    <t>Twilight Halfling</t>
+  </si>
+  <si>
+    <t>Wildwood Halfling</t>
+  </si>
+  <si>
+    <t>Halfling</t>
+  </si>
+  <si>
+    <t>Distracting Shadows</t>
+  </si>
+  <si>
+    <t>Halfling Lore</t>
+  </si>
+  <si>
+    <t>Halfling Luck</t>
+  </si>
+  <si>
+    <t>Halfling Weapon Familiarity</t>
+  </si>
+  <si>
+    <t>Sure Feet</t>
+  </si>
+  <si>
+    <t>Titan Slinger</t>
+  </si>
+  <si>
+    <t>Unfettered Halfling</t>
+  </si>
+  <si>
+    <t>Watchful Halfling</t>
+  </si>
+  <si>
+    <t>Cultural Adaptation</t>
+  </si>
+  <si>
+    <t>Halfling Weapon Trickster</t>
+  </si>
+  <si>
+    <t>Guiding Luck</t>
+  </si>
+  <si>
+    <t>Irrepressible</t>
+  </si>
+  <si>
+    <t>Ceaseless Shadow</t>
+  </si>
+  <si>
+    <t>Halfling Weapon Expertise</t>
+  </si>
+  <si>
+    <t>Distracting Shadow</t>
+  </si>
+  <si>
+    <t>Half-Elf</t>
+  </si>
+  <si>
+    <t>Half-Orc</t>
+  </si>
+  <si>
+    <t>Skilled Heritage</t>
+  </si>
+  <si>
+    <t>Versatile Heritage</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Adapted Cantrip</t>
+  </si>
+  <si>
+    <t>Cooperative Nature</t>
+  </si>
+  <si>
+    <t>General Training</t>
+  </si>
+  <si>
+    <t>Haughty Obstinacy</t>
+  </si>
+  <si>
+    <t>Natural Ambition</t>
+  </si>
+  <si>
+    <t>Natural Skill</t>
+  </si>
+  <si>
+    <t>Unconventional Weaponry</t>
+  </si>
+  <si>
+    <t>Adaptive Adept</t>
+  </si>
+  <si>
+    <t>Clever Improviser</t>
+  </si>
+  <si>
+    <t>Cooperative Soul</t>
+  </si>
+  <si>
+    <t>Incredible Improvisation</t>
+  </si>
+  <si>
+    <t>Multitalented</t>
+  </si>
+  <si>
+    <t>Unconventional Expertise</t>
+  </si>
+  <si>
+    <t>Elf Avatism</t>
+  </si>
+  <si>
+    <t>Inspire Imitation</t>
+  </si>
+  <si>
+    <t>Supernatural Charm</t>
+  </si>
+  <si>
+    <t>Monstrous Peacemaker</t>
+  </si>
+  <si>
+    <t>Orc Ferocity</t>
+  </si>
+  <si>
+    <t>Orc Sight</t>
+  </si>
+  <si>
+    <t>Orc Superstition</t>
+  </si>
+  <si>
+    <t>Orc Weapon Familiarity</t>
+  </si>
+  <si>
+    <t>Orc Weapon Carnage</t>
+  </si>
+  <si>
+    <t>Victorious Vigor</t>
+  </si>
+  <si>
+    <t>Pervasive Superstition</t>
+  </si>
+  <si>
+    <t>Incredible Ferocity</t>
+  </si>
+  <si>
+    <t>Orc Weapon Expertise</t>
+  </si>
+  <si>
+    <t>low-light vision</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>spellcaster</t>
+  </si>
+  <si>
+    <t>Adaptive Cantrip</t>
   </si>
 </sst>
 </file>
@@ -354,18 +758,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +781,1403 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>105</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+      <c r="B116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" t="s">
+        <v>102</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C119">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
